--- a/data/long_bre/P31-Urba-long_bre.xlsx
+++ b/data/long_bre/P31-Urba-long_bre.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -514,6 +521,8 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
     <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -529,12 +538,14 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -551,12 +562,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -567,6 +588,8 @@
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -576,27 +599,37 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,11</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-19,49%</t>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-15,23%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8,37%</t>
         </is>
       </c>
     </row>
@@ -609,22 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 9,0</t>
+          <t>-6,61; 7,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,75; -1,32</t>
+          <t>-13,14; 0,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 23,16</t>
+          <t>-4,79; 11,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,51; -3,58</t>
+          <t>-13,77; 19,52</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-28,81; 0,3</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-12,5; 37,68</t>
         </is>
       </c>
     </row>
@@ -632,27 +675,37 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,2%</t>
+          <t>12,52%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>36,55%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>49,57%</t>
         </is>
       </c>
     </row>
@@ -665,22 +718,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 7,89</t>
+          <t>-3,46; 7,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 13,39</t>
+          <t>1,44; 11,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 48,49</t>
+          <t>0,2; 11,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 83,05</t>
+          <t>-16,33; 48,37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6,68; 76,11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 137,65</t>
         </is>
       </c>
     </row>
@@ -688,27 +751,37 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>-3,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,82%</t>
+          <t>-8,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>-9,53%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-0,81%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-14,93%</t>
         </is>
       </c>
     </row>
@@ -721,54 +794,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 5,3</t>
+          <t>-11,37; 4,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 7,14</t>
+          <t>-6,69; 5,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 16,56</t>
+          <t>-17,81; -0,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 19,31</t>
+          <t>-27,2; 12,15</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-14,88; 15,26</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-28,95; -0,61</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -781,50 +870,74 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 8,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 8,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 23,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 29,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,23</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,78%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11,33%</t>
         </is>
       </c>
     </row>
@@ -837,22 +950,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 12,5</t>
+          <t>-6,71; 9,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 6,27</t>
+          <t>-4,89; 8,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 70,23</t>
+          <t>-5,42; 11,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,26; 29,76</t>
+          <t>-14,49; 25,04</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-13,13; 29,93</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-13,68; 39,06</t>
         </is>
       </c>
     </row>
@@ -860,27 +983,37 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-5,56</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,71</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-15,93%</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>27,02%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>11,93%</t>
         </is>
       </c>
     </row>
@@ -893,54 +1026,70 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 2,65</t>
+          <t>-1,32; 12,81</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 4,42</t>
+          <t>-6,53; 6,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,18; 9,52</t>
+          <t>-5,93; 9,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 11,54</t>
+          <t>-5,75; 75,2</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-22,95; 31,61</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-25,97; 66,85</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>-6,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>-18,45%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-6,09%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-12,78%</t>
         </is>
       </c>
     </row>
@@ -953,22 +1102,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 17,65</t>
+          <t>-14,34; 1,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 17,94</t>
+          <t>-10,14; 5,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 49,76</t>
+          <t>-15,68; 3,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 79,76</t>
+          <t>-34,48; 5,04</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-21,41; 13,11</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-29,61; 8,22</t>
         </is>
       </c>
     </row>
@@ -976,27 +1135,37 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1009,50 +1178,74 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 16,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 14,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 74,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 79,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-9,22</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-14,29%</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-20,15%</t>
+          <t>-1,03%</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18,88%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
         </is>
       </c>
     </row>
@@ -1065,54 +1258,70 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 9,34</t>
+          <t>-19,2; 14,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 5,03</t>
+          <t>-6,67; 17,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-53,57; 53,14</t>
+          <t>-20,45; 18,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-41,81; 13,68</t>
+          <t>-32,24; 38,98</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-19,5; 76,55</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-47,5; 85,86</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-6,05%</t>
+          <t>14,0%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>14,63%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>37,3%</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1334,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 6,32</t>
+          <t>-10,66; 17,12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 2,5</t>
+          <t>-7,06; 16,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 15,47</t>
+          <t>-8,09; 19,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 7,72</t>
+          <t>-32,54; 84,9</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-23,6; 93,1</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-32,27; 234,73</t>
         </is>
       </c>
     </row>
@@ -1148,27 +1367,37 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>-9,18</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>19,32%</t>
+          <t>-13,11%</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-20,03%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-12,85%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1410,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 7,34</t>
+          <t>-16,36; 9,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 8,11</t>
+          <t>-23,25; 5,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 38,48</t>
+          <t>-27,93; 11,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 43,43</t>
+          <t>-49,56; 58,95</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-42,73; 12,7</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-42,26; 29,54</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1443,37 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-11,76%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-4,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1237,34 +1486,359 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 1,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 2,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-24,94; 4,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 6,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-4,15%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 5,68</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 2,95</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 9,4</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>-9,18; 13,9</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-16,32; 8,92</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-5,89; 31,89</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>3,71</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>17,89%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>18,28%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>28,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-0,78; 8,14</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-0,12; 7,75</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>0,03; 8,7</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-3,68; 44,33</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 40,89</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 71,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-4,63</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-2,32</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-7,18</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-13,12%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-5,48%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-13,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-10,0; 0,13</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-6,81; 2,67</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-14,09; -1,93</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-26,54; 0,35</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-15,06; 6,77</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-25,34; -4,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
